--- a/medicine/Bioéthique/Life_parade/Life_parade.xlsx
+++ b/medicine/Bioéthique/Life_parade/Life_parade.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Life Parade est une association loi de 1901 qui organise chaque année une parade anti-avortement. 
 </t>
@@ -511,12 +523,14 @@
           <t>La parade et le festival</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Créée en 2005 par Émile Duport, militant catholique[1],[2], elle organise chaque année une parade du même nom, la Life parade, manifestation anti-avortement[3]. En 2005 elle réunit moins de 3000 personnes selon la police mais de 10000 à 15000 participants selon les organisateurs[4].
-Jean-Pierre Foucault soutient l'édition 2006[5].
-La troisième édition de la Life Parade se tient le 17 mars 2007 à Paris. En pleine campagne électorale, elle a rassemblé plus de mille participants (1300 selon la police, 10 000 selon les organisateurs) dont de nombreux jeunes sur le thème de la promotion de la famille et du "Non à l'homoparentalité"[6].
-En 2018, l'association est déboutée de ses demandes formulées à l'encontre de Hello Asso, à qui elle reprochait d'avoir suspendu puis supprimé une collecte créé par celle-ci au bénéfice des Survivants, à la tête de sites internet de désinformation anti-IVG, ce dont elle est déboutée[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Créée en 2005 par Émile Duport, militant catholique elle organise chaque année une parade du même nom, la Life parade, manifestation anti-avortement. En 2005 elle réunit moins de 3000 personnes selon la police mais de 10000 à 15000 participants selon les organisateurs.
+Jean-Pierre Foucault soutient l'édition 2006.
+La troisième édition de la Life Parade se tient le 17 mars 2007 à Paris. En pleine campagne électorale, elle a rassemblé plus de mille participants (1300 selon la police, 10 000 selon les organisateurs) dont de nombreux jeunes sur le thème de la promotion de la famille et du "Non à l'homoparentalité".
+En 2018, l'association est déboutée de ses demandes formulées à l'encontre de Hello Asso, à qui elle reprochait d'avoir suspendu puis supprimé une collecte créé par celle-ci au bénéfice des Survivants, à la tête de sites internet de désinformation anti-IVG, ce dont elle est déboutée.
 </t>
         </is>
       </c>
